--- a/src/main/resources/data/ErrorFiles/dementia_Niguarda_v5.xlsx
+++ b/src/main/resources/data/ErrorFiles/dementia_Niguarda_v5.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Patient ID</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/ID_UNI_PAZIENTE</t>
+    <t xml:space="preserve">/root/ID_UNI_PAZIENTE</t>
   </si>
   <si>
     <t xml:space="preserve">SESSO</t>
@@ -94,7 +94,10 @@
     <t xml:space="preserve">Gender: M/F</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/SESSO</t>
+    <t xml:space="preserve">stays the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">DATA_NASCITA</t>
@@ -106,10 +109,7 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/ID_UNI_NOSOLOGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DATA_INIZIO – DATA_NASCITA keep only years], [DATA_INIZIO-DATA_NASCITA keep only months left], [(DATA_INIZIO-DATA_NASCITA) corresponds to one of the groups: {“-50y”},{”50-59y”},{”60-69y”},{”70-79y”},{”+80y”}]</t>
+    <t xml:space="preserve">[stays the same], [(CurrentDate-AGE)*12], [(CurrentDate-AGE) corresponds to one of the groups: {“-50y”},{”50-59y”},{”60-69y”},{”70-79y”},{”+80y”}]</t>
   </si>
   <si>
     <t xml:space="preserve">subjectageyears, subjectage, agegroup</t>
@@ -127,13 +127,16 @@
     <t xml:space="preserve">Clinical episode ID</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/ID_UNI_NOSOLOGICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CODICE_PRESTAZIONE_ICD9</t>
   </si>
   <si>
     <t xml:space="preserve">Hospital treatment code (ICD9) for the MRI</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/CODICE_PRESTAZIONE_ICD9</t>
+    <t xml:space="preserve">/root/treatment/CODICE_PRESTAZIONE_ICD9</t>
   </si>
   <si>
     <t xml:space="preserve">HANDEDNESS</t>
@@ -163,7 +166,7 @@
     <t xml:space="preserve">Years of Education</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/demographics/EDUCATION</t>
+    <t xml:space="preserve">/root/demographics/EDUCATION</t>
   </si>
   <si>
     <t xml:space="preserve">PROFILO_CLINICO</t>
@@ -172,7 +175,7 @@
     <t xml:space="preserve">DIAGNOSIS CATEGORY</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/diagnosis/PROFILO_CLINICO</t>
+    <t xml:space="preserve">/root/diagnosis/PROFILO_CLINICO</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE_SCORE</t>
@@ -181,9 +184,6 @@
     <t xml:space="preserve">Mini Mental State Examination (MMSE) total score</t>
   </si>
   <si>
-    <t xml:space="preserve">stays the same</t>
-  </si>
-  <si>
     <t xml:space="preserve">minimentalstate</t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">MMSE subscore for orientation to time</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/ORIENTATION_TO_TIME</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/ORIENTATION_TO_TIME</t>
   </si>
   <si>
     <t xml:space="preserve">ORIENTATION_TO_PLACE</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">MMSE subscore for orientation to place</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/ORIENTATION_TO_PLACE</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/ORIENTATION_TO_PLACE</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRATION</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">MMSE subscore for registration</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/REGISTRATION</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/REGISTRATION</t>
   </si>
   <si>
     <t xml:space="preserve">CALCULATION</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">MMSE subscore for calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/CALCULATION</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/CALCULATION</t>
   </si>
   <si>
     <t xml:space="preserve">ATTENTION</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">MMSE subscore for attention</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/ATTENTION</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/ATTENTION</t>
   </si>
   <si>
     <t xml:space="preserve">RECALL</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">MMSE subscore for recall</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/RECALL</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/RECALL</t>
   </si>
   <si>
     <t xml:space="preserve">LANGUAGE</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">MMSE subscore for language</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/LANGUAGE</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/LANGUAGE</t>
   </si>
   <si>
     <t xml:space="preserve">REPETITION</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">MMSE subscore for repetition</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/REPETITION</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/REPETITION</t>
   </si>
   <si>
     <t xml:space="preserve">STAGE_COMMANDS_3  </t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">MMSE subscore for complex commands</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/STAGE_COMMANDS_3</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/STAGE_COMMANDS_3</t>
   </si>
   <si>
     <t xml:space="preserve">READ_AND_OBEY</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">MMSE subscore for read and obey</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/READ_AND_OBEY</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/READ_AND_OBEY</t>
   </si>
   <si>
     <t xml:space="preserve">SENTENCE</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">MMSE subscore for sentence</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/SENTENCE</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/SENTENCE</t>
   </si>
   <si>
     <t xml:space="preserve">PRAXIA</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">MMSE subscore for praxia</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/neuropsychology/mmse/PRAXIA</t>
+    <t xml:space="preserve">/root/neuropsychology/mmse/PRAXIA</t>
   </si>
   <si>
     <t xml:space="preserve">Episode</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Clinical episode start date</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/DATA_INIZIO</t>
+    <t xml:space="preserve">/root/treatment/DATA_INIZIO</t>
   </si>
   <si>
     <t xml:space="preserve">DATA_FINE</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Clinical episode end date</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/DATA_FINE</t>
+    <t xml:space="preserve">/root/treatment/DATA_FINE</t>
   </si>
   <si>
     <t xml:space="preserve">REGIME</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Way to perform hospitalization ( 1 =inpatient surgery; 2=day hospital; 4= MAC; 5= anticipato).</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/REGIME</t>
+    <t xml:space="preserve">/root/treatment/REGIME</t>
   </si>
   <si>
     <t xml:space="preserve">REPARTO_INIZIO</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Start ward (only for inpatients)</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/REPARTO_INIZIO</t>
+    <t xml:space="preserve">/root/treatment/REPARTO_INIZIO</t>
   </si>
   <si>
     <t xml:space="preserve">REPARTO_FINE</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">End ward (only for inpatients)</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/REPARTO_FINE</t>
+    <t xml:space="preserve">/root/treatment/REPARTO_FINE</t>
   </si>
   <si>
     <t xml:space="preserve">COD_DIAGNOSI_ICD9</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Diagnosis only from emergency episode</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/diagnosis/COD_DIAGNOSI_ICD9</t>
+    <t xml:space="preserve">/root/diagnosis/COD_DIAGNOSI_ICD9</t>
   </si>
   <si>
     <t xml:space="preserve">CODICE_DIAGNOSI_1_ICD9</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">First diagnosis code from inpatient episode</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/diagnosis/</t>
+    <t xml:space="preserve">/root/diagnosis/</t>
   </si>
   <si>
     <t xml:space="preserve">CODICE_DIAGNOSI_2_ICD9</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">Episode type (“I” = inpatient; “U” =emergency; “E” = outpatient)</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/treatment/</t>
+    <t xml:space="preserve">/root/treatment/</t>
   </si>
   <si>
     <t xml:space="preserve">Imaging</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">PACS Accession number for the MRI</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/ACCESSION_NUMBER</t>
+    <t xml:space="preserve">/root/ACCESSION_NUMBER</t>
   </si>
   <si>
     <t xml:space="preserve">DATA_ESAME</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">Exam date (date of the MRI)</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/DATA_ESAME</t>
+    <t xml:space="preserve">/root/DATA_ESAME</t>
   </si>
   <si>
     <t xml:space="preserve">RICHIEDENTE</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">Ward applying the exam. “3760 Neurologia Degenza” is Neuroscience ward. Please convert every other value to null or blank.</t>
   </si>
   <si>
-    <t xml:space="preserve">/dementia/RICHIEDENTE</t>
+    <t xml:space="preserve">/root/RICHIEDENTE</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -499,6 +499,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,7 +556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,6 +597,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,11 +628,17 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U43" activeCellId="0" sqref="U43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.9897959183674"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="66.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -718,25 +734,27 @@
         <v>23</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -744,12 +762,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
         <v>29</v>
@@ -780,8 +796,8 @@
         <v>34</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
+      <c r="J5" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -792,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>33</v>
@@ -806,11 +822,11 @@
         <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -821,34 +837,34 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,27 +872,27 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -887,10 +903,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>33</v>
@@ -901,11 +917,11 @@
         <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -916,10 +932,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
@@ -930,13 +946,13 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>54</v>
@@ -1301,7 +1317,7 @@
         <v>93</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1330,7 +1346,7 @@
         <v>96</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1368,7 +1384,7 @@
       <c r="G25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="12" t="s">
         <v>101</v>
       </c>
       <c r="I25" s="7"/>
@@ -1660,7 +1676,7 @@
       <c r="G35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="12" t="s">
         <v>127</v>
       </c>
       <c r="I35" s="7"/>
@@ -1693,7 +1709,7 @@
         <v>132</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="10" t="s">
         <v>133</v>
       </c>
       <c r="K36" s="7"/>
@@ -1711,7 +1727,7 @@
         <v>134</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -1722,7 +1738,7 @@
         <v>135</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K37" s="7"/>
@@ -1747,7 +1763,7 @@
       <c r="G38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="12" t="s">
         <v>138</v>
       </c>
       <c r="I38" s="7"/>
